--- a/App_transportadora.xlsx
+++ b/App_transportadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbonetto/Documents/GitHub/App_Uranttia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B3797C9-132E-334F-AAD8-3A87DE38B6B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04988986-D3F4-774A-8927-8C7942111C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15840" yWindow="-24880" windowWidth="62060" windowHeight="21620" xr2:uid="{B2607D7E-013C-EA4D-80F1-E17AC0FA768A}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
   <si>
     <t>Transportadora</t>
   </si>
@@ -179,6 +179,15 @@
   </si>
   <si>
     <t>(34) 9 9829-3095  Gabriel</t>
+  </si>
+  <si>
+    <t>Salvador</t>
+  </si>
+  <si>
+    <t>BA</t>
+  </si>
+  <si>
+    <t>Teste Banco</t>
   </si>
 </sst>
 </file>
@@ -553,10 +562,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E712BBE2-A022-8E4E-B699-54367BA406CF}">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1004,6 +1013,26 @@
         <v>400</v>
       </c>
     </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" t="s">
+        <v>50</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F18" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>

--- a/App_transportadora.xlsx
+++ b/App_transportadora.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbonetto/Documents/GitHub/App_Uranttia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04988986-D3F4-774A-8927-8C7942111C5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA9704-E121-3F46-845D-140DC7A908B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-15840" yWindow="-24880" windowWidth="62060" windowHeight="21620" xr2:uid="{B2607D7E-013C-EA4D-80F1-E17AC0FA768A}"/>
   </bookViews>
@@ -55,18 +55,12 @@
     <t>LUIZ GABRIEL FRETES</t>
   </si>
   <si>
-    <t>Luziania</t>
-  </si>
-  <si>
     <t>GO</t>
   </si>
   <si>
     <t>ZAMBAK</t>
   </si>
   <si>
-    <t xml:space="preserve">Ctristanila </t>
-  </si>
-  <si>
     <t>Formiga Transmaion Paranaguá 4f</t>
   </si>
   <si>
@@ -88,27 +82,12 @@
     <t>Bom Jesus</t>
   </si>
   <si>
-    <t>Marcianopolis</t>
-  </si>
-  <si>
     <t>Santa Helena</t>
   </si>
   <si>
-    <t>Rio Verd</t>
-  </si>
-  <si>
-    <t>Nova Crixas</t>
-  </si>
-  <si>
     <t>Itumbiara</t>
   </si>
   <si>
-    <t>Vicentinopolis</t>
-  </si>
-  <si>
-    <t>Panama</t>
-  </si>
-  <si>
     <t>Almirante Tamandaré</t>
   </si>
   <si>
@@ -188,6 +167,27 @@
   </si>
   <si>
     <t>Teste Banco</t>
+  </si>
+  <si>
+    <t>Cristalina</t>
+  </si>
+  <si>
+    <t>Luziânia</t>
+  </si>
+  <si>
+    <t>Marcianópolis</t>
+  </si>
+  <si>
+    <t>Rio Verde</t>
+  </si>
+  <si>
+    <t>Nova Crixás</t>
+  </si>
+  <si>
+    <t>Vicentinópolis</t>
+  </si>
+  <si>
+    <t>Panamá</t>
   </si>
 </sst>
 </file>
@@ -565,7 +565,7 @@
   <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -577,37 +577,37 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>1</v>
@@ -622,20 +622,20 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="S2" s="2"/>
       <c r="T2" s="2"/>
@@ -655,18 +655,18 @@
       </c>
       <c r="E3" s="4"/>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>6</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>7</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="4">
@@ -674,58 +674,58 @@
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>9</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D5" s="4">
         <v>1500</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D6" s="4">
         <v>1500</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J6">
         <v>241</v>
@@ -733,23 +733,23 @@
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D7" s="4">
         <v>1500</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J7">
         <v>51</v>
@@ -757,23 +757,23 @@
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" s="4">
         <v>1500</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J8">
         <v>51</v>
@@ -781,23 +781,23 @@
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D9" s="4">
         <v>1500</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>270</v>
@@ -805,23 +805,23 @@
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D10" s="4">
         <v>1500</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J10">
         <v>298</v>
@@ -829,23 +829,23 @@
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D11" s="4">
         <v>1500</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J11">
         <v>340</v>
@@ -853,23 +853,23 @@
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D12" s="4">
         <v>1500</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J12">
         <v>232</v>
@@ -877,23 +877,23 @@
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D13" s="4">
         <v>1500</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J13">
         <v>260</v>
@@ -901,23 +901,23 @@
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D14" s="4">
         <v>1500</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="J14">
         <v>228</v>
@@ -925,28 +925,28 @@
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="B15" t="s">
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="J15">
         <v>200</v>
@@ -954,28 +954,28 @@
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B16" t="s">
         <v>3</v>
       </c>
       <c r="D16" t="s">
+        <v>20</v>
+      </c>
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
         <v>27</v>
       </c>
-      <c r="E16" t="s">
-        <v>32</v>
-      </c>
-      <c r="F16" t="s">
-        <v>34</v>
-      </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I16" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="J16">
         <v>13000</v>
@@ -983,31 +983,31 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D17" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="F17" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="G17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="J17">
         <v>400</v>
@@ -1015,22 +1015,22 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="E18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>

--- a/App_transportadora.xlsx
+++ b/App_transportadora.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielbonetto/Documents/GitHub/App_Uranttia/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4ADA9704-E121-3F46-845D-140DC7A908B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C357265-CD69-6F42-B5AD-0DDD723FC8AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15840" yWindow="-24880" windowWidth="62060" windowHeight="21620" xr2:uid="{B2607D7E-013C-EA4D-80F1-E17AC0FA768A}"/>
+    <workbookView xWindow="-5400" yWindow="-25420" windowWidth="46080" windowHeight="22220" xr2:uid="{B2607D7E-013C-EA4D-80F1-E17AC0FA768A}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="51">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="54">
   <si>
     <t>Transportadora</t>
   </si>
@@ -188,6 +188,15 @@
   </si>
   <si>
     <t>Panamá</t>
+  </si>
+  <si>
+    <t>Porto Alegre</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>Mais um teste Banco</t>
   </si>
 </sst>
 </file>
@@ -562,10 +571,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E712BBE2-A022-8E4E-B699-54367BA406CF}">
-  <dimension ref="A1:T18"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="144" workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1033,6 +1042,26 @@
         <v>43</v>
       </c>
     </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B19" t="s">
+        <v>52</v>
+      </c>
+      <c r="C19" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>53</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
